--- a/biology/Histoire de la zoologie et de la botanique/Madeleine_Alberta_Fritz/Madeleine_Alberta_Fritz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Madeleine_Alberta_Fritz/Madeleine_Alberta_Fritz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,41 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madeleine Alberta Fritz (née le 3 novembre 1896 dans la Province de Nouveau-Brunswick et morte le 20 août 1990) est une paléontologue canadienne connue pour l'étude des Bryozoaires ordoviciens et pour ses ouvrages de paléontologie et de stratigraphie de Toronto, qui sont devenus des références en la matière. Fritz est la deuxième femme à devenir membre de la Société royale du Canada[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madeleine Alberta Fritz (née le 3 novembre 1896 dans la Province de Nouveau-Brunswick et morte le 20 août 1990) est une paléontologue canadienne connue pour l'étude des Bryozoaires ordoviciens et pour ses ouvrages de paléontologie et de stratigraphie de Toronto, qui sont devenus des références en la matière. Fritz est la deuxième femme à devenir membre de la Société royale du Canada,.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Madeleine_Alberta_Fritz</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Madeleine_Alberta_Fritz</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biographie</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jeunesse et formation
-Carrière professionnelle</t>
         </is>
       </c>
     </row>
